--- a/data/GroupAndAccountKeywords.xlsx
+++ b/data/GroupAndAccountKeywords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{643AE9BC-E8F9-49BA-9193-13D2297BD3F7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{19730ADA-FFAB-4D28-BBAB-392F6AAD4D89}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>First</t>
   </si>
   <si>
-    <t>Tea</t>
+    <t>Snacks</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
